--- a/reverseprimer-v3_09.xlsx
+++ b/reverseprimer-v3_09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_09" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0769-ACACACCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACCTTGGTCTCGTGGGCTCGG</t>
+    <t>R0769-CCTAGATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGATGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0770-TTCGTCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTCATGTGTCTCGTGGGCTCGG</t>
+    <t>R0770-AGCTGTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGTCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0771-GAAGTCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCTCATGTCTCGTGGGCTCGG</t>
+    <t>R0771-TCTAGGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0772-GATCTCTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTCTCACGTCTCGTGGGCTCGG</t>
+    <t>R0772-GAACAAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0773-AACCTGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R0773-TGGATGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGATGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0774-GCTTGGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGGACTTGTCTCGTGGGCTCGG</t>
+    <t>R0774-AGACTGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0775-TGCTTCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCACACGTCTCGTGGGCTCGG</t>
+    <t>R0775-ACTGACACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGACACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0776-CAGTACCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTACCTTCGTCTCGTGGGCTCGG</t>
+    <t>R0776-TCTCGTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0777-GAACCAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCAACAGGTCTCGTGGGCTCGG</t>
+    <t>R0777-TGTGCTGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGCTGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0778-TCTCTGCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGCAACGTCTCGTGGGCTCGG</t>
+    <t>R0778-TCAAGCAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0779-GCTACGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACGTTGTGTCTCGTGGGCTCGG</t>
+    <t>R0779-TGCACTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCACTAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0780-ACACTGGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTGGTTCGTCTCGTGGGCTCGG</t>
+    <t>R0780-ACTGACGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGACGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0781-TCCAGTACAC</t>
+    <t>R0781-GGAAGTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGTCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R0782-AAGAGTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGTCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R0783-AAGTGTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R0784-GGTACACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R0785-AGGTTCGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R0786-AGTCTGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R0787-TGGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTTGGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R0788-TTCCTGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGTGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R0789-TGTCCTACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCCTACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R0790-TGACAGAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAGAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R0791-GGAGCTTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGCTTGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R0792-AGGACACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGACACCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R0793-AGGTAGCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTAGCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R0794-AGCAGAACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGAACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R0795-GCTTCCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTCCATGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R0796-ACTGACAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGACAACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R0797-TCATCCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCCACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R0798-AGTCGTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCGTCAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R0799-TCACTGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTGACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R0800-CGTGCTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGCTACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R0801-TCACCACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R0802-AGCTGTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGTAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R0803-TGTGAGTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGAGTGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R0804-GACTGACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGACAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R0805-TGAGTGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGAAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R0806-GCACTAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACTAGGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R0807-AGGAAGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGAAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R0808-CAACCACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCACTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R0809-AGCTGATCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGATCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R0810-GAGTGGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGGAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R0811-CTCGAACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGAACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R0812-CTAGGTACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGGTACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R0813-CAGGAGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGAGAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R0814-TACATGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACATGCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R0815-TCCAAGCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAAGCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R0816-GACCTGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCTGATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R0817-CTCATCCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCATCCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R0818-GACACGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACGTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R0819-CTCAGAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGAGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R0820-GTCTTGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R0821-AGACCAAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACCAAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R0822-GTAGAGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAGAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R0823-GTTCTAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTAGGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R0824-ATGATCCTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGATCCTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R0825-CTACGTTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGTTCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R0826-GTTGCAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGCAGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R0827-TCACTCAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTCAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R0828-CATCACTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCACTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R0829-GGAAGATCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGATCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R0830-GTCAACGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAACGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R0831-AGTCAAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAAGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R0832-ACTCACTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCACTAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R0833-AGAGCTAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R0834-TCTGCTTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGCTTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R0835-GACGAACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGAACACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R0836-TAGTGACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGACAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R0837-AAGACGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACGAAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R0838-CTCAAGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R0839-GATCGAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCGAACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R0840-TCATGAAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGAAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R0841-GACAGGTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAGGTTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R0842-GGATCCTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCCTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R0843-ACAGCACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCACATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R0844-GAAGACGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGACGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R0845-AACCAACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAACTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R0846-TCTCGTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R0847-TCAGATGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGATGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R0848-TCTGTCGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R0849-TTGAACCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAACCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R0850-GTACAAGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAAGAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R0851-ATCAAGGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAAGGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R0852-ACGTCAACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCAACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R0853-ATCCAACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R0854-CCAACTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAACTAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R0855-TGAACGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACGACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R0856-AGTGCATGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCATGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>R0857-TGCAAGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R0858-AGATGAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGAACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>R0859-AACTGAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGAGGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>R0860-TCCAGTACAC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTCCAGTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R0782-AGACTGGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTGGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R0783-TGAACAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACAGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R0784-GTCCTTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCCTTCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R0785-GCAGATGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGATGGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R0786-GAACAAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAAGCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R0787-GTCACACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACACACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R0788-AAGCATCCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCATCCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R0789-AGTGTTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTTCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R0790-AGTGCTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R0791-CAAGTGCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R0792-AGTCTGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R0793-CTGAAGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGATCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R0794-ACTCTCCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTCCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R0795-ACTGTGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTGTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R0796-AGACTCTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTCTTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R0797-AAGAGTAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGTAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R0798-AACCAGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAGAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R0799-AGGTCAACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R0800-CTTCAGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGCTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R0801-GTACCTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCTCCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R0802-TGAGTCTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R0803-GTTGTTGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTTGCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R0804-GATCTGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTGACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R0805-CTAGACACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGACACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R0806-CGACTACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACTACTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R0807-ACCAGACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAGACATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R0808-AGACGTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGTAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R0809-TTCCAGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAGATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R0810-ACTACTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACTGGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R0811-CATCAGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCAGTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R0812-TGATGTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGTCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R0813-ATGCACTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCACTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R0814-CTTGAGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R0815-CGTACATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTACATGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R0816-AAGCTAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTAGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R0817-AACAGTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R0818-GACTCCTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTCCTTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R0819-GTAGGTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R0820-CTGTTGTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTTGTCCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R0821-GACAACACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAACACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R0822-TCCTCTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCTGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R0823-AACAAGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R0824-GGAACTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACTCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R0825-TCTTGCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGCTACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R0826-TACTACAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTACAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R0827-TCAGCTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCTTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R0828-TGAGTCACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCACGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R0829-AGTAGTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R0830-GTTCCTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R0831-GATGTGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTGGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R0832-TCAAGGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGGTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R0833-AGGTACTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTACTGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R0834-GTCACAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACAGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R0835-GAAGAGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGTCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R0836-GTTCCTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R0837-GATGAGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAGTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R0838-ATCGAGCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAGCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R0839-ACTTCGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCGACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R0840-TAGGAACCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGAACCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R0841-GTTGGAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGGAAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R0842-GTACGACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGACAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R0843-ATCACCACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACCACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R0844-AGTCACAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCACAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R0845-GAGAACGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAACGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R0846-TGCAAGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGAAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R0847-TGCTAGCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R0848-GTACCAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCAGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R0849-CAGCTCTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGCTCTTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R0850-TCACTCATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCATGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R0851-TGCTACTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTACTAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R0852-TCGTTCTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTTCTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R0853-TCTAGAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGAACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R0854-TAGCTTCCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTTCCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R0855-TGTGAGGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGAGGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R0856-AAGACACGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACACGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>R0857-GACTACAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTACAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>R0858-TGTTGGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTGGACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>R0859-TTCTTGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTTGTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>R0860-ATCTCCTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCCTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0861-CAGACGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGACGAACAGTCTCGTGGGCTCGG</t>
+    <t>R0861-CTACCAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0862-TGACATGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACATGTGTGTCTCGTGGGCTCGG</t>
+    <t>R0862-CACAAGCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAAGCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0863-CACGACAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGACAACTGTCTCGTGGGCTCGG</t>
+    <t>R0863-AGAACCTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACCTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0864-GGACTCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTCATGTGTCTCGTGGGCTCGG</t>
+    <t>R0864-CTTGTAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGTAGACGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
